--- a/docs/RAB_smart_puzzle.xlsx
+++ b/docs/RAB_smart_puzzle.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmad Aziz\Data\Project\TSRA\smart_puzzle\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A5A89B-974A-4BA5-9810-CC2B115AA527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120E4B37-83C8-40A2-8C1F-48D8A6E5D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -116,6 +117,9 @@
   </si>
   <si>
     <t>Main puzzle (untuk 1 puzzle)</t>
+  </si>
+  <si>
+    <t>2 kubus</t>
   </si>
 </sst>
 </file>
@@ -545,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,11 +636,11 @@
         <v>200000</v>
       </c>
       <c r="K3" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3" s="8">
         <f>J3*K3</f>
-        <v>200000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -1102,7 +1106,25 @@
       <c r="K20" s="15"/>
       <c r="L20" s="14">
         <f>SUM(L3:L17)</f>
-        <v>1610000</v>
+        <v>2410000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1">
+        <f>F20*2</f>
+        <v>822000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <f>F22+L20</f>
+        <v>3232000</v>
       </c>
     </row>
   </sheetData>
@@ -1113,4 +1135,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37CBDE-A8E1-4C63-B816-FC0CD74F5A88}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>